--- a/biology/Zoologie/Cheliplanidae/Cheliplanidae.xlsx
+++ b/biology/Zoologie/Cheliplanidae/Cheliplanidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cheliplanidae sont une famille de vers plats marins de l'ordre des Rhabdocoela (infra-ordre des Schizorhynchia  et sous-ordre des Kalyptorhynchia). Cette famille regroupe plus de 60 espèces.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malgré leur petite taille, des espèces de Cheliplanidae du genre Cheliplana ont été observées parasitées par des sporozoaires du genre Rhytidocystis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré leur petite taille, des espèces de Cheliplanidae du genre Cheliplana ont été observées parasitées par des sporozoaires du genre Rhytidocystis.
 </t>
         </is>
       </c>
@@ -568,13 +584,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Cheliplanidae Schilke (d), 1970[2].
-Synonyme de Cheliplanidae
-Cheliplanidae a pour synonyme Cheliplaninae Schilke, 1970, anciennement sous-famille de la famille des Karkinorhynchidae[2].
-Liste des genres
-Selon la base de données World Register of Marine Species                               (1er janvier 2024)[2], la famille des Cheliplanidae regroupe les genres suivants :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cheliplanidae Schilke (d), 1970.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cheliplanidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheliplanidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonyme de Cheliplanidae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheliplanidae a pour synonyme Cheliplaninae Schilke, 1970, anciennement sous-famille de la famille des Karkinorhynchidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cheliplanidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheliplanidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (1er janvier 2024), la famille des Cheliplanidae regroupe les genres suivants :
 Archipelagoplana Noldt &amp; Hoxhold, 1984
 Baltoplana Karling, 1949
 Cheliplana de Beauchamp, 1927
